--- a/app/source/Consulta.xlsx
+++ b/app/source/Consulta.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,10 +704,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45216.44545138889</v>
+        <v>45217.42340277778</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -717,7 +717,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0125432/10/23</t>
+          <t>0126639/10/23</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -732,9 +732,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" s="3" t="n">
-        <v>45205</v>
-      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -762,8 +760,16 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
       <c r="AZ2" t="inlineStr">
         <is>
           <t>ESCAMILLA GUITIEREZ OMAR</t>
@@ -772,69 +778,35 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45216.45165509259</v>
+        <v>45217.42442129629</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45216</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TRAMITE</t>
-        </is>
-      </c>
+        <v>45217</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REGISTRO COMO GENERADOR DE RESIDUOS DE MANEJO ESPECIAL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MIGUEL ANGEL VALDEZ NAVARRETE</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>RESIDUOS MANEJO ESPECIAL</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>RME. Registro de Generador</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0125433/10/23</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>PEMEX EXPLORACIÓN Y EXTRACCIÓN</t>
-        </is>
-      </c>
+          <t>0126640/10/23</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>DGGEERC</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1 CD; ANEXOS; COPIAS SIMPLES</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" s="3" t="n">
-        <v>45216</v>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -862,87 +834,53 @@
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>ESTEVES ABASCAL MARICELA</t>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45216.45409722222</v>
+        <v>45217.42472222223</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45216</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ASUNTO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COPIA DE CONOCIMIENTO                                               </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TERCERO. SUBCONTRATACION DE TERCEROS AUTORIZADOS Y APROBADOS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ARTURO BADILLO TERNEROS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>RESIDUOS MANEJO ESPECIAL</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>RME. Registro de Generador</t>
-        </is>
-      </c>
+        <v>45217</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0125434/10/23</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>PEMEX EXPLORACIÓN Y EXTRACCIÓN</t>
-        </is>
-      </c>
+          <t>0126641/10/23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>DGGEERC</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>INGRESA COMO ASUNTO</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" s="3" t="n">
-        <v>45214</v>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -970,11 +908,797 @@
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>ESTEVES ABASCAL MARICELA</t>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45217.42936342592</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0126642/10/23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45217.43166666666</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0126643/10/23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45217.43174768519</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0126644/10/23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45217.43189814815</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0126645/10/23</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" s="3" t="n">
+        <v>45203</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45217.43196759259</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0126646/10/23</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>ESCAMILLA GUITIEREZ OMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45217.43934027778</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TRAMITE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>INFORME DE CONCLUSION DE ACTIVIDADES REGISTRADAS O AUTORIZADAS DE RESIDUOS DE MANEJO ESPECIAL DEL SECTOR HIDROCARBUROS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEDRO ALEJANDRO </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SASISOPA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Informes semestrales de cumplimiento al Programa de Implementación del Sistema de Administración</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0126647/10/23</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ES EL PASO SA DE CV</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>PL/EX/ES/0254/2015</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>DGGC</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1 CD</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>NADA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>CESAREO ARENAS HOSARSIPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45217.44049768519</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TRAMITE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>APROBACION COMO UNIDAD DE VERIFICACION PARA REALIZAR LA EVALUACION DE LA CONFORMIDAD DE LA NORMA OFICIAL MEXICANA NOM-005-ASEA-2016, DISENO, CONSTRUCCION, OPERACION Y MANTENIMIENTO DE ESTACIONES DE SERVICIO  PARA ALMACENAMIENTO Y EXPENDIO DE DIESEL Y GASOLINA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ARTURO BADILLO TERNEROS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RESIDUOS MANEJO ESPECIAL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>RME. Recolección y Transporte</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0126648/10/23</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CONSTRUCTORA Y PERFORADORA LATINA, S.A. DE C.V.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>DGGC</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>CESAREO ARENAS HOSARSIPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45217.44123842593</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ASUNTO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CUMPLIMIENTO                                                        </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TERCERO. RENUNCIA A LA APROBACION O AUTORIZACION</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RESIDUOS MANEJO ESPECIAL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>RME. Recolección y Transporte</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0126649/10/23</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CONSTRUCTORA Y PERFORADORA LATINA, S.A. DE C.V.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PL/EX/ES/0254/2020</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>DGGC</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>TEST/0258/10/23</t>
+        </is>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>45212</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EN EVALUACION	</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>CESAREO ARENAS HOSARSIPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45217.47020833333</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0126650/10/23</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>EN TRAMITE</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>POR ASIGNAR EVALUADOR</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>CESAREO ARENAS HOSARSIPH</t>
         </is>
       </c>
     </row>
